--- a/excel/test.xlsx
+++ b/excel/test.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>1,2</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -185,6 +185,22 @@
   </si>
   <si>
     <t>"描述"</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>独白</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1137,7 +1153,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1151,16 +1167,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s">
         <v>19</v>
